--- a/admin/Timesheets/Caroline Chang/Week 8 Timesheet.xlsx
+++ b/admin/Timesheets/Caroline Chang/Week 8 Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\CSCI_Classes\CSCI4308\capstone_proj\admin\Timesheets\Caroline Chang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122719CC-237F-458A-A530-79D7CEB805AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DD1930-92EC-477D-8CA2-DB1ECC5C70EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -425,7 +424,7 @@
   <dimension ref="A4:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,7 +482,12 @@
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -551,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
@@ -564,7 +568,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
